--- a/excels/DAM_libro.xlsx
+++ b/excels/DAM_libro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29423"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvaedu.sharepoint.com/sites/Section_46017675-C2-Dept.Informtica/Documentos compartidos/Dept. Informàtica/curso2025_2026/PCCF_PDs/PD Esquemas Generales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{727D295A-9AFD-4F64-A8F1-23A6CD6301C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC998314-7E58-47C4-A51B-7273D1D04961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI" sheetId="1" r:id="rId1"/>
@@ -3630,32 +3630,48 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3663,20 +3679,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3684,19 +3691,25 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3705,22 +3718,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4047,7 +4047,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="75"/>
@@ -4070,15 +4070,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -4106,31 +4106,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="48">
@@ -4175,7 +4175,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -4269,7 +4269,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -4328,7 +4328,7 @@
       <c r="D19" s="75"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="48">
@@ -4357,7 +4357,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -4469,7 +4469,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -4528,7 +4528,7 @@
       <c r="D30" s="75"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="48">
@@ -4557,7 +4557,7 @@
     <row r="32" spans="2:10">
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="45" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -4651,7 +4651,7 @@
     <row r="37" spans="2:10">
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
-      <c r="D37" s="46"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="7" t="s">
         <v>51</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="D39" s="75"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="52" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="48">
@@ -4719,7 +4719,7 @@
     <row r="41" spans="2:10">
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -4813,7 +4813,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
-      <c r="D46" s="46"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="7" t="s">
         <v>59</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="D49" s="75"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="48">
@@ -4899,7 +4899,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -4993,7 +4993,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
-      <c r="D56" s="46"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="7" t="s">
         <v>68</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="D59" s="75"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="52" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="48">
@@ -5079,7 +5079,7 @@
     <row r="61" spans="2:10">
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="45" t="s">
         <v>23</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -5173,7 +5173,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
-      <c r="D66" s="46"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="7" t="s">
         <v>77</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="D68" s="75"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="52" t="s">
         <v>79</v>
       </c>
       <c r="C69" s="48">
@@ -5241,7 +5241,7 @@
     <row r="70" spans="2:10">
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="45" t="s">
         <v>80</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -5335,7 +5335,7 @@
     <row r="75" spans="2:10" ht="28.9">
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="45" t="s">
         <v>86</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -5377,39 +5377,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C69:C77"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B69:B77"/>
     <mergeCell ref="B50:B59"/>
     <mergeCell ref="J10:J18"/>
@@ -5426,6 +5393,39 @@
     <mergeCell ref="J69:J76"/>
     <mergeCell ref="C60:C68"/>
     <mergeCell ref="J50:J58"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D41:D44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5452,7 +5452,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>652</v>
       </c>
       <c r="D1" s="75"/>
@@ -5475,15 +5475,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>485</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -5491,8 +5491,8 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="F4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="F4" s="60"/>
+      <c r="I4" s="60"/>
       <c r="J4" t="s">
         <v>10</v>
       </c>
@@ -5511,31 +5511,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5544,14 +5544,14 @@
       <c r="C9" s="75"/>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="54"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>655</v>
       </c>
       <c r="C10" s="48">
@@ -5580,7 +5580,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>656</v>
       </c>
@@ -5698,7 +5698,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="46"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7" t="s">
         <v>662</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="D20" s="75"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="52" t="s">
         <v>665</v>
       </c>
       <c r="C21" s="48">
@@ -5791,7 +5791,7 @@
     <row r="22" spans="2:10">
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
-      <c r="D22" s="46"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="7" t="s">
         <v>666</v>
       </c>
@@ -5930,7 +5930,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="7" t="s">
         <v>630</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="52" t="s">
         <v>676</v>
       </c>
       <c r="C34" s="48">
@@ -6038,7 +6038,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="7" t="s">
         <v>677</v>
       </c>
@@ -6164,7 +6164,7 @@
     <row r="41" spans="2:10">
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
-      <c r="D41" s="46"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="7" t="s">
         <v>683</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="D45" s="75"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="52" t="s">
         <v>687</v>
       </c>
       <c r="C46" s="48">
@@ -6272,7 +6272,7 @@
     <row r="47" spans="2:10" ht="28.9">
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
-      <c r="D47" s="46"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="7" t="s">
         <v>688</v>
       </c>
@@ -6369,7 +6369,7 @@
     <row r="52" spans="2:10" ht="28.9">
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
-      <c r="D52" s="46"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="7" t="s">
         <v>693</v>
       </c>
@@ -6433,7 +6433,7 @@
       <c r="D55" s="75"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="52" t="s">
         <v>696</v>
       </c>
       <c r="C56" s="48">
@@ -6462,7 +6462,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
-      <c r="D57" s="46"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="7" t="s">
         <v>697</v>
       </c>
@@ -6561,7 +6561,7 @@
     <row r="62" spans="2:10">
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
-      <c r="D62" s="46"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="7" t="s">
         <v>702</v>
       </c>
@@ -6622,6 +6622,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J34:J44"/>
+    <mergeCell ref="D41:D45"/>
+    <mergeCell ref="J21:J32"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="B56:B65"/>
+    <mergeCell ref="J56:J64"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C21:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="C56:C65"/>
+    <mergeCell ref="J46:J54"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B34:B45"/>
     <mergeCell ref="E8:E9"/>
@@ -6638,29 +6661,6 @@
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="B56:B65"/>
-    <mergeCell ref="J56:J64"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C21:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="C56:C65"/>
-    <mergeCell ref="J46:J54"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J34:J44"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="J21:J32"/>
-    <mergeCell ref="D52:D55"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6687,7 +6687,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>704</v>
       </c>
       <c r="D1" s="75"/>
@@ -6710,15 +6710,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>539</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -6749,31 +6749,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>707</v>
       </c>
       <c r="C10" s="48">
@@ -6818,7 +6818,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>708</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -6922,7 +6922,7 @@
     <row r="16" spans="2:10" ht="28.9">
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>714</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -6987,7 +6987,7 @@
       <c r="D19" s="75"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="52" t="s">
         <v>718</v>
       </c>
       <c r="C20" s="48">
@@ -7016,7 +7016,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="45" t="s">
         <v>719</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -7100,7 +7100,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="45" t="s">
         <v>724</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -7145,7 +7145,7 @@
       <c r="D27" s="75"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="52" t="s">
         <v>727</v>
       </c>
       <c r="C28" s="48">
@@ -7174,7 +7174,7 @@
     <row r="29" spans="2:10" ht="28.9">
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="45" t="s">
         <v>728</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -7278,7 +7278,7 @@
     <row r="34" spans="2:10">
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>734</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -7343,7 +7343,7 @@
       <c r="D37" s="75"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="52" t="s">
         <v>738</v>
       </c>
       <c r="C38" s="48">
@@ -7372,7 +7372,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="45" t="s">
         <v>739</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -7496,7 +7496,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="45" t="s">
         <v>746</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -7581,7 +7581,7 @@
       <c r="D49" s="75"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="52" t="s">
         <v>751</v>
       </c>
       <c r="C50" s="48">
@@ -7610,7 +7610,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="45" t="s">
         <v>752</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -7714,7 +7714,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="45" t="s">
         <v>758</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -8022,14 +8022,21 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="C38:C49"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="J38:J48"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="J28:J36"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="D34:D37"/>
@@ -8046,21 +8053,14 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="C38:C49"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="J38:J48"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="J28:J36"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8087,7 +8087,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>778</v>
       </c>
       <c r="D1" s="75"/>
@@ -8110,15 +8110,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>780</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -8148,31 +8148,31 @@
     <row r="6" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>782</v>
       </c>
       <c r="C10" s="48">
@@ -8217,7 +8217,7 @@
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>783</v>
       </c>
@@ -8279,7 +8279,7 @@
     <row r="15" spans="2:10" ht="43.15" customHeight="1">
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
-      <c r="D15" s="46"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="7" t="s">
         <v>787</v>
       </c>
@@ -8312,7 +8312,7 @@
       <c r="D17" s="75"/>
     </row>
     <row r="18" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="52" t="s">
         <v>789</v>
       </c>
       <c r="C18" s="48">
@@ -8341,7 +8341,7 @@
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="46"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="7" t="s">
         <v>790</v>
       </c>
@@ -8403,7 +8403,7 @@
     <row r="23" spans="2:10" ht="28.9" customHeight="1">
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="7" t="s">
         <v>794</v>
       </c>
@@ -8421,7 +8421,7 @@
       <c r="D24" s="75"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="52" t="s">
         <v>795</v>
       </c>
       <c r="C25" s="48">
@@ -8450,7 +8450,7 @@
     <row r="26" spans="2:10" ht="14.45" customHeight="1">
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
-      <c r="D26" s="46"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="7" t="s">
         <v>796</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="52" t="s">
         <v>799</v>
       </c>
       <c r="C30" s="48">
@@ -8538,7 +8538,7 @@
     <row r="31" spans="2:10" ht="14.45" customHeight="1">
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
-      <c r="D31" s="46"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="7" t="s">
         <v>800</v>
       </c>
@@ -8612,7 +8612,7 @@
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="7" t="s">
         <v>804</v>
       </c>
@@ -8651,7 +8651,7 @@
       <c r="D37" s="75"/>
     </row>
     <row r="38" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="52" t="s">
         <v>806</v>
       </c>
       <c r="C38" s="48">
@@ -8680,7 +8680,7 @@
     <row r="39" spans="2:10" ht="14.45" customHeight="1">
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="7" t="s">
         <v>800</v>
       </c>
@@ -8772,7 +8772,7 @@
     <row r="45" spans="2:10" ht="14.45" customHeight="1">
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
-      <c r="D45" s="46"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="7" t="s">
         <v>810</v>
       </c>
@@ -8823,7 +8823,7 @@
       <c r="D48" s="75"/>
     </row>
     <row r="49" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="52" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="48">
@@ -8852,7 +8852,7 @@
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="7" t="s">
         <v>814</v>
       </c>
@@ -8926,7 +8926,7 @@
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
-      <c r="D54" s="46"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="7" t="s">
         <v>818</v>
       </c>
@@ -8948,17 +8948,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="J30:J36"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J38:J47"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="J49:J54"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="J18:J23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B38:B48"/>
     <mergeCell ref="C2:E2"/>
@@ -8975,22 +8980,17 @@
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="J38:J47"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="J49:J54"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="J18:J23"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="J30:J36"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9017,21 +9017,21 @@
       <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="63" t="s">
         <v>819</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
       <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="64" t="s">
         <v>820</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -9040,15 +9040,15 @@
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="55" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="65" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -9057,8 +9057,8 @@
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
       <c r="E4" s="42"/>
-      <c r="F4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="F4" s="65"/>
+      <c r="I4" s="65"/>
       <c r="J4" t="s">
         <v>10</v>
       </c>
@@ -9080,47 +9080,47 @@
     <row r="6" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="61" t="s">
         <v>821</v>
       </c>
       <c r="C10" s="48">
@@ -9145,14 +9145,14 @@
         <f>SUM(I11:I19)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="62" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>823</v>
       </c>
@@ -9168,12 +9168,12 @@
       <c r="I11" s="11">
         <v>1</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B12" s="56"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7" t="s">
         <v>824</v>
       </c>
@@ -9189,12 +9189,12 @@
       <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7" t="s">
         <v>825</v>
       </c>
@@ -9210,12 +9210,12 @@
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B14" s="56"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7" t="s">
         <v>826</v>
       </c>
@@ -9231,12 +9231,12 @@
       <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7" t="s">
         <v>827</v>
       </c>
@@ -9252,11 +9252,11 @@
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="57"/>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="2:10" ht="72" customHeight="1">
-      <c r="B16" s="56"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="39" t="s">
         <v>10</v>
       </c>
@@ -9275,12 +9275,12 @@
       <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B17" s="56"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7" t="s">
         <v>829</v>
       </c>
@@ -9296,12 +9296,12 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B18" s="56"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7" t="s">
         <v>830</v>
       </c>
@@ -9317,12 +9317,12 @@
       <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7" t="s">
         <v>831</v>
       </c>
@@ -9338,12 +9338,12 @@
       <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -9351,7 +9351,7 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="61" t="s">
         <v>832</v>
       </c>
       <c r="C21" s="48">
@@ -9376,14 +9376,14 @@
         <f>SUM(I22:I24)</f>
         <v>3</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="62" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="46"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="7" t="s">
         <v>834</v>
       </c>
@@ -9399,12 +9399,12 @@
       <c r="I22" s="11">
         <v>1</v>
       </c>
-      <c r="J22" s="57"/>
+      <c r="J22" s="62"/>
     </row>
     <row r="23" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B23" s="56"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7" t="s">
         <v>836</v>
       </c>
@@ -9420,11 +9420,11 @@
       <c r="I23" s="11">
         <v>1</v>
       </c>
-      <c r="J23" s="57"/>
+      <c r="J23" s="62"/>
     </row>
     <row r="24" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="39" t="s">
         <v>10</v>
       </c>
@@ -9443,11 +9443,11 @@
       <c r="I24" s="11">
         <v>1</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="56"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
@@ -9456,7 +9456,7 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="61" t="s">
         <v>838</v>
       </c>
       <c r="C26" s="48">
@@ -9481,14 +9481,14 @@
         <f>SUM(I27:I33)</f>
         <v>3</v>
       </c>
-      <c r="J26" s="57" t="s">
+      <c r="J26" s="62" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B27" s="56"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="46"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="7" t="s">
         <v>840</v>
       </c>
@@ -9504,12 +9504,12 @@
       <c r="I27" s="11">
         <v>1</v>
       </c>
-      <c r="J27" s="57"/>
+      <c r="J27" s="62"/>
     </row>
     <row r="28" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B28" s="56"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="7" t="s">
         <v>841</v>
       </c>
@@ -9525,12 +9525,12 @@
       <c r="I28" s="11">
         <v>1</v>
       </c>
-      <c r="J28" s="57"/>
+      <c r="J28" s="62"/>
     </row>
     <row r="29" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B29" s="56"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="7" t="s">
         <v>842</v>
       </c>
@@ -9546,12 +9546,12 @@
       <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="57"/>
+      <c r="J29" s="62"/>
     </row>
     <row r="30" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B30" s="56"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="7" t="s">
         <v>843</v>
       </c>
@@ -9567,11 +9567,11 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="57"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B31" s="56"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="39" t="s">
         <v>10</v>
       </c>
@@ -9590,12 +9590,12 @@
       <c r="I31" s="11">
         <v>0</v>
       </c>
-      <c r="J31" s="57"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B32" s="56"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="46"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="7" t="s">
         <v>845</v>
       </c>
@@ -9611,12 +9611,12 @@
       <c r="I32" s="11">
         <v>0</v>
       </c>
-      <c r="J32" s="57"/>
+      <c r="J32" s="62"/>
     </row>
     <row r="33" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B33" s="56"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="7" t="s">
         <v>846</v>
       </c>
@@ -9632,12 +9632,12 @@
       <c r="I33" s="11">
         <v>0</v>
       </c>
-      <c r="J33" s="57"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B34" s="56"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -9645,7 +9645,7 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="61" t="s">
         <v>847</v>
       </c>
       <c r="C35" s="48">
@@ -9670,14 +9670,14 @@
         <f>SUM(I36:I46)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="57" t="s">
+      <c r="J35" s="62" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B36" s="56"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="46"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="7" t="s">
         <v>849</v>
       </c>
@@ -9693,12 +9693,12 @@
       <c r="I36" s="11">
         <v>0</v>
       </c>
-      <c r="J36" s="57"/>
+      <c r="J36" s="62"/>
     </row>
     <row r="37" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B37" s="56"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="7" t="s">
         <v>850</v>
       </c>
@@ -9714,12 +9714,12 @@
       <c r="I37" s="11">
         <v>0</v>
       </c>
-      <c r="J37" s="57"/>
+      <c r="J37" s="62"/>
     </row>
     <row r="38" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B38" s="56"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="7" t="s">
         <v>851</v>
       </c>
@@ -9735,12 +9735,12 @@
       <c r="I38" s="11">
         <v>0</v>
       </c>
-      <c r="J38" s="57"/>
+      <c r="J38" s="62"/>
     </row>
     <row r="39" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B39" s="56"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="7" t="s">
         <v>852</v>
       </c>
@@ -9756,12 +9756,12 @@
       <c r="I39" s="11">
         <v>0</v>
       </c>
-      <c r="J39" s="57"/>
+      <c r="J39" s="62"/>
     </row>
     <row r="40" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B40" s="56"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="7" t="s">
         <v>853</v>
       </c>
@@ -9777,12 +9777,12 @@
       <c r="I40" s="11">
         <v>0</v>
       </c>
-      <c r="J40" s="57"/>
+      <c r="J40" s="62"/>
     </row>
     <row r="41" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B41" s="56"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="7" t="s">
         <v>854</v>
       </c>
@@ -9798,11 +9798,11 @@
       <c r="I41" s="11">
         <v>0</v>
       </c>
-      <c r="J41" s="57"/>
+      <c r="J41" s="62"/>
     </row>
     <row r="42" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B42" s="56"/>
-      <c r="C42" s="44"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="39" t="s">
         <v>10</v>
       </c>
@@ -9821,12 +9821,12 @@
       <c r="I42" s="11">
         <v>1</v>
       </c>
-      <c r="J42" s="57"/>
+      <c r="J42" s="62"/>
     </row>
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B43" s="56"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="46"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="7" t="s">
         <v>856</v>
       </c>
@@ -9842,12 +9842,12 @@
       <c r="I43" s="11">
         <v>0</v>
       </c>
-      <c r="J43" s="57"/>
+      <c r="J43" s="62"/>
     </row>
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B44" s="56"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="7" t="s">
         <v>857</v>
       </c>
@@ -9863,12 +9863,12 @@
       <c r="I44" s="11">
         <v>0</v>
       </c>
-      <c r="J44" s="57"/>
+      <c r="J44" s="62"/>
     </row>
     <row r="45" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B45" s="56"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="7" t="s">
         <v>858</v>
       </c>
@@ -9884,12 +9884,12 @@
       <c r="I45" s="11">
         <v>0</v>
       </c>
-      <c r="J45" s="57"/>
+      <c r="J45" s="62"/>
     </row>
     <row r="46" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B46" s="56"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="7" t="s">
         <v>859</v>
       </c>
@@ -9905,12 +9905,12 @@
       <c r="I46" s="11">
         <v>0</v>
       </c>
-      <c r="J46" s="57"/>
+      <c r="J46" s="62"/>
     </row>
     <row r="47" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B47" s="56"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="12"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -9918,7 +9918,7 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="61" t="s">
         <v>860</v>
       </c>
       <c r="C48" s="48">
@@ -9943,14 +9943,14 @@
         <f>SUM(I49:I57)</f>
         <v>2</v>
       </c>
-      <c r="J48" s="57" t="s">
+      <c r="J48" s="62" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B49" s="56"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="46"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="7" t="s">
         <v>862</v>
       </c>
@@ -9966,12 +9966,12 @@
       <c r="I49" s="11">
         <v>0</v>
       </c>
-      <c r="J49" s="57"/>
+      <c r="J49" s="62"/>
     </row>
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B50" s="56"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="7" t="s">
         <v>863</v>
       </c>
@@ -9987,12 +9987,12 @@
       <c r="I50" s="11">
         <v>0</v>
       </c>
-      <c r="J50" s="57"/>
+      <c r="J50" s="62"/>
     </row>
     <row r="51" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B51" s="56"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="7" t="s">
         <v>864</v>
       </c>
@@ -10008,12 +10008,12 @@
       <c r="I51" s="11">
         <v>0</v>
       </c>
-      <c r="J51" s="57"/>
+      <c r="J51" s="62"/>
     </row>
     <row r="52" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B52" s="56"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="7" t="s">
         <v>865</v>
       </c>
@@ -10029,12 +10029,12 @@
       <c r="I52" s="11">
         <v>0</v>
       </c>
-      <c r="J52" s="57"/>
+      <c r="J52" s="62"/>
     </row>
     <row r="53" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B53" s="56"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="7" t="s">
         <v>866</v>
       </c>
@@ -10050,11 +10050,11 @@
       <c r="I53" s="11">
         <v>0</v>
       </c>
-      <c r="J53" s="57"/>
+      <c r="J53" s="62"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="56"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="39" t="s">
         <v>10</v>
       </c>
@@ -10073,12 +10073,12 @@
       <c r="I54" s="11">
         <v>0</v>
       </c>
-      <c r="J54" s="57"/>
+      <c r="J54" s="62"/>
     </row>
     <row r="55" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B55" s="56"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="46"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="7" t="s">
         <v>868</v>
       </c>
@@ -10094,12 +10094,12 @@
       <c r="I55" s="11">
         <v>1</v>
       </c>
-      <c r="J55" s="57"/>
+      <c r="J55" s="62"/>
     </row>
     <row r="56" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B56" s="56"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="7" t="s">
         <v>869</v>
       </c>
@@ -10115,12 +10115,12 @@
       <c r="I56" s="11">
         <v>1</v>
       </c>
-      <c r="J56" s="57"/>
+      <c r="J56" s="62"/>
     </row>
     <row r="57" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B57" s="56"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="7" t="s">
         <v>870</v>
       </c>
@@ -10136,12 +10136,12 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-      <c r="J57" s="57"/>
+      <c r="J57" s="62"/>
     </row>
     <row r="58" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B58" s="56"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="12"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -10149,7 +10149,7 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="61" t="s">
         <v>871</v>
       </c>
       <c r="C59" s="48">
@@ -10174,14 +10174,14 @@
         <f>SUM(I60:I66)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="57" t="s">
+      <c r="J59" s="62" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B60" s="56"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="7" t="s">
         <v>873</v>
       </c>
@@ -10197,12 +10197,12 @@
       <c r="I60" s="11">
         <v>0</v>
       </c>
-      <c r="J60" s="57"/>
+      <c r="J60" s="62"/>
     </row>
     <row r="61" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B61" s="56"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="7" t="s">
         <v>874</v>
       </c>
@@ -10218,12 +10218,12 @@
       <c r="I61" s="11">
         <v>0</v>
       </c>
-      <c r="J61" s="57"/>
+      <c r="J61" s="62"/>
     </row>
     <row r="62" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B62" s="56"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="7" t="s">
         <v>875</v>
       </c>
@@ -10239,12 +10239,12 @@
       <c r="I62" s="11">
         <v>0</v>
       </c>
-      <c r="J62" s="57"/>
+      <c r="J62" s="62"/>
     </row>
     <row r="63" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B63" s="56"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="7" t="s">
         <v>876</v>
       </c>
@@ -10260,11 +10260,11 @@
       <c r="I63" s="11">
         <v>0</v>
       </c>
-      <c r="J63" s="57"/>
+      <c r="J63" s="62"/>
     </row>
     <row r="64" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B64" s="56"/>
-      <c r="C64" s="44"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="39" t="s">
         <v>10</v>
       </c>
@@ -10283,12 +10283,12 @@
       <c r="I64" s="11">
         <v>0</v>
       </c>
-      <c r="J64" s="57"/>
+      <c r="J64" s="62"/>
     </row>
     <row r="65" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B65" s="56"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="46"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="7" t="s">
         <v>878</v>
       </c>
@@ -10304,12 +10304,12 @@
       <c r="I65" s="11">
         <v>0</v>
       </c>
-      <c r="J65" s="57"/>
+      <c r="J65" s="62"/>
     </row>
     <row r="66" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B66" s="56"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="7" t="s">
         <v>879</v>
       </c>
@@ -10325,43 +10325,16 @@
       <c r="I66" s="11">
         <v>0</v>
       </c>
-      <c r="J66" s="57"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B67" s="56"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="J59:J66"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C35:C47"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J35:J46"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D43:D47"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B48:B58"/>
     <mergeCell ref="D36:D41"/>
@@ -10378,6 +10351,33 @@
     <mergeCell ref="J26:J33"/>
     <mergeCell ref="B35:B47"/>
     <mergeCell ref="D55:D58"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C35:C47"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J35:J46"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D65:D67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10404,21 +10404,21 @@
       <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="63" t="s">
         <v>880</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
       <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="64" t="s">
         <v>881</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -10427,15 +10427,15 @@
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="66" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -10443,8 +10443,8 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
-      <c r="F4" s="66"/>
-      <c r="I4" s="62"/>
+      <c r="F4" s="67"/>
+      <c r="I4" s="58"/>
       <c r="J4" t="s">
         <v>10</v>
       </c>
@@ -10469,47 +10469,47 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="61" t="s">
         <v>883</v>
       </c>
       <c r="C10" s="48">
@@ -10533,14 +10533,14 @@
         <f>SUM(I11:I14)</f>
         <v>10</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="62" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>885</v>
       </c>
@@ -10556,12 +10556,12 @@
       <c r="I11" s="9">
         <v>4</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B12" s="56"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7" t="s">
         <v>886</v>
       </c>
@@ -10577,11 +10577,11 @@
       <c r="I12" s="9">
         <v>2</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B13" s="56"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="39" t="s">
         <v>10</v>
       </c>
@@ -10600,12 +10600,12 @@
       <c r="I13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B14" s="56"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="7" t="s">
         <v>888</v>
       </c>
@@ -10621,19 +10621,19 @@
       <c r="I14" s="9">
         <v>2</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="61" t="s">
         <v>889</v>
       </c>
       <c r="C16" s="48">
@@ -10658,14 +10658,14 @@
         <f>SUM(I17:I23)</f>
         <v>12</v>
       </c>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="68" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B17" s="56"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7" t="s">
         <v>891</v>
       </c>
@@ -10681,12 +10681,12 @@
       <c r="I17" s="9">
         <v>2</v>
       </c>
-      <c r="J17" s="65"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B18" s="56"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7" t="s">
         <v>892</v>
       </c>
@@ -10702,12 +10702,12 @@
       <c r="I18" s="9">
         <v>2</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B19" s="56"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7" t="s">
         <v>893</v>
       </c>
@@ -10723,12 +10723,12 @@
       <c r="I19" s="9">
         <v>2</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7" t="s">
         <v>894</v>
       </c>
@@ -10744,11 +10744,11 @@
       <c r="I20" s="9">
         <v>2</v>
       </c>
-      <c r="J20" s="65"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B21" s="56"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="39" t="s">
         <v>10</v>
       </c>
@@ -10767,12 +10767,12 @@
       <c r="I21" s="9">
         <v>2</v>
       </c>
-      <c r="J21" s="65"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="46"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="7" t="s">
         <v>896</v>
       </c>
@@ -10788,12 +10788,12 @@
       <c r="I22" s="9">
         <v>1</v>
       </c>
-      <c r="J22" s="65"/>
+      <c r="J22" s="68"/>
     </row>
     <row r="23" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B23" s="56"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7" t="s">
         <v>897</v>
       </c>
@@ -10809,19 +10809,19 @@
       <c r="I23" s="9">
         <v>1</v>
       </c>
-      <c r="J23" s="65"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B24" s="56"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="61" t="s">
         <v>898</v>
       </c>
       <c r="C25" s="48">
@@ -10846,14 +10846,14 @@
         <f>SUM(I26:I31)</f>
         <v>18</v>
       </c>
-      <c r="J25" s="65" t="s">
+      <c r="J25" s="68" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B26" s="56"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="46"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="7" t="s">
         <v>900</v>
       </c>
@@ -10869,12 +10869,12 @@
       <c r="I26" s="9">
         <v>3</v>
       </c>
-      <c r="J26" s="65"/>
+      <c r="J26" s="68"/>
     </row>
     <row r="27" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B27" s="56"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="7" t="s">
         <v>901</v>
       </c>
@@ -10890,12 +10890,12 @@
       <c r="I27" s="9">
         <v>3</v>
       </c>
-      <c r="J27" s="65"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B28" s="56"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="7" t="s">
         <v>902</v>
       </c>
@@ -10911,11 +10911,11 @@
       <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="65"/>
+      <c r="J28" s="68"/>
     </row>
     <row r="29" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B29" s="56"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="39" t="s">
         <v>10</v>
       </c>
@@ -10934,12 +10934,12 @@
       <c r="I29" s="9">
         <v>3</v>
       </c>
-      <c r="J29" s="65"/>
+      <c r="J29" s="68"/>
     </row>
     <row r="30" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B30" s="56"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="7" t="s">
         <v>904</v>
       </c>
@@ -10955,12 +10955,12 @@
       <c r="I30" s="9">
         <v>3</v>
       </c>
-      <c r="J30" s="65"/>
+      <c r="J30" s="68"/>
     </row>
     <row r="31" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B31" s="56"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="7" t="s">
         <v>905</v>
       </c>
@@ -10976,19 +10976,19 @@
       <c r="I31" s="9">
         <v>3</v>
       </c>
-      <c r="J31" s="65"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B32" s="56"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="61" t="s">
         <v>906</v>
       </c>
       <c r="C33" s="48">
@@ -11013,14 +11013,14 @@
         <f>SUM(I34:I42)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="62" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B34" s="56"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="46"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="7" t="s">
         <v>908</v>
       </c>
@@ -11036,12 +11036,12 @@
       <c r="I34" s="9">
         <v>0</v>
       </c>
-      <c r="J34" s="57"/>
+      <c r="J34" s="62"/>
     </row>
     <row r="35" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B35" s="56"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="7" t="s">
         <v>909</v>
       </c>
@@ -11057,12 +11057,12 @@
       <c r="I35" s="9">
         <v>0</v>
       </c>
-      <c r="J35" s="57"/>
+      <c r="J35" s="62"/>
     </row>
     <row r="36" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B36" s="56"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="7" t="s">
         <v>910</v>
       </c>
@@ -11078,12 +11078,12 @@
       <c r="I36" s="9">
         <v>0</v>
       </c>
-      <c r="J36" s="57"/>
+      <c r="J36" s="62"/>
     </row>
     <row r="37" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B37" s="56"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="7" t="s">
         <v>911</v>
       </c>
@@ -11099,12 +11099,12 @@
       <c r="I37" s="9">
         <v>0</v>
       </c>
-      <c r="J37" s="57"/>
+      <c r="J37" s="62"/>
     </row>
     <row r="38" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B38" s="56"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="7" t="s">
         <v>912</v>
       </c>
@@ -11120,11 +11120,11 @@
       <c r="I38" s="9">
         <v>0</v>
       </c>
-      <c r="J38" s="57"/>
+      <c r="J38" s="62"/>
     </row>
     <row r="39" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B39" s="56"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="39" t="s">
         <v>10</v>
       </c>
@@ -11143,12 +11143,12 @@
       <c r="I39" s="9">
         <v>0</v>
       </c>
-      <c r="J39" s="57"/>
+      <c r="J39" s="62"/>
     </row>
     <row r="40" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B40" s="56"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="7" t="s">
         <v>914</v>
       </c>
@@ -11164,12 +11164,12 @@
       <c r="I40" s="9">
         <v>0</v>
       </c>
-      <c r="J40" s="57"/>
+      <c r="J40" s="62"/>
     </row>
     <row r="41" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B41" s="56"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="7" t="s">
         <v>915</v>
       </c>
@@ -11185,12 +11185,12 @@
       <c r="I41" s="9">
         <v>0</v>
       </c>
-      <c r="J41" s="57"/>
+      <c r="J41" s="62"/>
     </row>
     <row r="42" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B42" s="56"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="7" t="s">
         <v>916</v>
       </c>
@@ -11206,19 +11206,19 @@
       <c r="I42" s="9">
         <v>0</v>
       </c>
-      <c r="J42" s="57"/>
+      <c r="J42" s="62"/>
     </row>
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B43" s="56"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="61" t="s">
         <v>917</v>
       </c>
       <c r="C44" s="48">
@@ -11243,14 +11243,14 @@
         <f>SUM(I45:I53)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="65" t="s">
+      <c r="J44" s="68" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B45" s="56"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="46"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="7" t="s">
         <v>919</v>
       </c>
@@ -11266,12 +11266,12 @@
       <c r="I45" s="9">
         <v>0</v>
       </c>
-      <c r="J45" s="65"/>
+      <c r="J45" s="68"/>
     </row>
     <row r="46" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B46" s="56"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="7" t="s">
         <v>920</v>
       </c>
@@ -11287,12 +11287,12 @@
       <c r="I46" s="9">
         <v>0</v>
       </c>
-      <c r="J46" s="65"/>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B47" s="56"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="7" t="s">
         <v>921</v>
       </c>
@@ -11308,12 +11308,12 @@
       <c r="I47" s="9">
         <v>0</v>
       </c>
-      <c r="J47" s="65"/>
+      <c r="J47" s="68"/>
     </row>
     <row r="48" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B48" s="56"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="7" t="s">
         <v>922</v>
       </c>
@@ -11329,12 +11329,12 @@
       <c r="I48" s="9">
         <v>0</v>
       </c>
-      <c r="J48" s="65"/>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B49" s="56"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="7" t="s">
         <v>923</v>
       </c>
@@ -11350,11 +11350,11 @@
       <c r="I49" s="9">
         <v>0</v>
       </c>
-      <c r="J49" s="65"/>
+      <c r="J49" s="68"/>
     </row>
     <row r="50" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B50" s="56"/>
-      <c r="C50" s="44"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="39" t="s">
         <v>10</v>
       </c>
@@ -11373,12 +11373,12 @@
       <c r="I50" s="9">
         <v>0</v>
       </c>
-      <c r="J50" s="65"/>
+      <c r="J50" s="68"/>
     </row>
     <row r="51" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B51" s="56"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="46"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="7" t="s">
         <v>925</v>
       </c>
@@ -11394,12 +11394,12 @@
       <c r="I51" s="9">
         <v>0</v>
       </c>
-      <c r="J51" s="65"/>
+      <c r="J51" s="68"/>
     </row>
     <row r="52" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B52" s="56"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="7" t="s">
         <v>926</v>
       </c>
@@ -11415,12 +11415,12 @@
       <c r="I52" s="9">
         <v>0</v>
       </c>
-      <c r="J52" s="65"/>
+      <c r="J52" s="68"/>
     </row>
     <row r="53" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B53" s="56"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="7" t="s">
         <v>927</v>
       </c>
@@ -11436,19 +11436,19 @@
       <c r="I53" s="9">
         <v>0</v>
       </c>
-      <c r="J53" s="65"/>
+      <c r="J53" s="68"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="56"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="61" t="s">
         <v>928</v>
       </c>
       <c r="C55" s="48">
@@ -11473,14 +11473,14 @@
         <f>SUM(I56:I59)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="57" t="s">
+      <c r="J55" s="62" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="28.9">
-      <c r="B56" s="56"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="7" t="s">
         <v>930</v>
       </c>
@@ -11496,12 +11496,12 @@
       <c r="I56" s="9">
         <v>0</v>
       </c>
-      <c r="J56" s="57"/>
+      <c r="J56" s="62"/>
     </row>
     <row r="57" spans="2:10" ht="43.15">
-      <c r="B57" s="56"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="7" t="s">
         <v>931</v>
       </c>
@@ -11517,11 +11517,11 @@
       <c r="I57" s="9">
         <v>0</v>
       </c>
-      <c r="J57" s="57"/>
+      <c r="J57" s="62"/>
     </row>
     <row r="58" spans="2:10" ht="28.9">
-      <c r="B58" s="56"/>
-      <c r="C58" s="44"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="39" t="s">
         <v>10</v>
       </c>
@@ -11540,12 +11540,12 @@
       <c r="I58" s="9">
         <v>0</v>
       </c>
-      <c r="J58" s="57"/>
+      <c r="J58" s="62"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="56"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="46"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="7" t="s">
         <v>933</v>
       </c>
@@ -11561,27 +11561,31 @@
       <c r="I59" s="9">
         <v>0</v>
       </c>
-      <c r="J59" s="57"/>
+      <c r="J59" s="62"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="56"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C33:C43"/>
+    <mergeCell ref="D45:D49"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="J33:J42"/>
@@ -11598,22 +11602,18 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J16:J23"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D59:D60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11640,7 +11640,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>934</v>
       </c>
       <c r="D1" s="75"/>
@@ -11669,16 +11669,16 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>780</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="72" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="28"/>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="70" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -11686,7 +11686,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
-      <c r="F4" s="68"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="28"/>
       <c r="I4" s="76"/>
       <c r="J4" t="s">
@@ -11718,31 +11718,31 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11751,14 +11751,14 @@
       <c r="C9" s="75"/>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="75"/>
       <c r="I9" s="76"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>936</v>
       </c>
       <c r="C10" s="48">
@@ -11787,7 +11787,7 @@
     <row r="11" spans="2:10" ht="14.45" customHeight="1">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>937</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -11897,7 +11897,7 @@
     <row r="16" spans="2:10" ht="14.45" customHeight="1">
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -11948,7 +11948,7 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="52" t="s">
         <v>945</v>
       </c>
       <c r="C19" s="48">
@@ -11977,7 +11977,7 @@
     <row r="20" spans="2:10" ht="14.45" customHeight="1">
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="45" t="s">
         <v>946</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -12087,7 +12087,7 @@
     <row r="25" spans="2:10" ht="28.9" customHeight="1">
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -12138,7 +12138,7 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="52" t="s">
         <v>954</v>
       </c>
       <c r="C28" s="48">
@@ -12167,7 +12167,7 @@
     <row r="29" spans="2:10" ht="14.45" customHeight="1">
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="45" t="s">
         <v>955</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -12251,7 +12251,7 @@
     <row r="33" spans="2:10" ht="28.9" customHeight="1">
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -12281,7 +12281,7 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="52" t="s">
         <v>961</v>
       </c>
       <c r="C35" s="48">
@@ -12310,7 +12310,7 @@
     <row r="36" spans="2:10" ht="14.45" customHeight="1">
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="45" t="s">
         <v>962</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -12403,7 +12403,7 @@
     <row r="40" spans="2:10" ht="14.45" customHeight="1">
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -12451,7 +12451,7 @@
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="52" t="s">
         <v>969</v>
       </c>
       <c r="C43" s="48">
@@ -12480,7 +12480,7 @@
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
         <v>970</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -12613,7 +12613,7 @@
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -12687,7 +12687,7 @@
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="52" t="s">
         <v>980</v>
       </c>
       <c r="C54" s="48">
@@ -12716,7 +12716,7 @@
     <row r="55" spans="2:10" ht="14.45" customHeight="1">
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="45" t="s">
         <v>981</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -12866,7 +12866,7 @@
     <row r="62" spans="2:10" ht="14.45" customHeight="1">
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -12960,6 +12960,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J54:J65"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="B54:B66"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B35:B42"/>
@@ -12976,34 +13004,6 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J54:J65"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D25:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13031,7 +13031,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>993</v>
       </c>
       <c r="D1" s="75"/>
@@ -13054,15 +13054,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13084,31 +13084,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13119,12 +13119,12 @@
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>995</v>
       </c>
       <c r="C10" s="48">
@@ -13152,7 +13152,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>996</v>
       </c>
@@ -13202,7 +13202,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
-      <c r="D15" s="46"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="7" t="s">
         <v>1000</v>
       </c>
@@ -13235,7 +13235,7 @@
       <c r="D17" s="75"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="52" t="s">
         <v>1002</v>
       </c>
       <c r="C18" s="48">
@@ -13263,7 +13263,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="46"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="7" t="s">
         <v>1003</v>
       </c>
@@ -13322,7 +13322,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="7" t="s">
         <v>1007</v>
       </c>
@@ -13361,7 +13361,7 @@
       <c r="D25" s="75"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="52" t="s">
         <v>1009</v>
       </c>
       <c r="C26" s="48">
@@ -13389,7 +13389,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
-      <c r="D27" s="46"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="7" t="s">
         <v>1010</v>
       </c>
@@ -13451,7 +13451,7 @@
     <row r="31" spans="2:10">
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
-      <c r="D31" s="71"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="7" t="s">
         <v>1014</v>
       </c>
@@ -13487,7 +13487,7 @@
       <c r="D33" s="77"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="52" t="s">
         <v>1016</v>
       </c>
       <c r="C34" s="48">
@@ -13515,7 +13515,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="7" t="s">
         <v>1017</v>
       </c>
@@ -13577,7 +13577,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="7" t="s">
         <v>1021</v>
       </c>
@@ -13611,24 +13611,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J34:J40"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J26:J32"/>
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B8:B9"/>
@@ -13640,11 +13627,24 @@
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="B34:B41"/>
-    <mergeCell ref="J34:J40"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13671,7 +13671,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="75"/>
@@ -13694,15 +13694,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -13730,31 +13730,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13770,7 +13770,7 @@
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="48">
@@ -13799,7 +13799,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -13901,7 +13901,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -13970,7 +13970,7 @@
       <c r="D21" s="75"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="52" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="48">
@@ -13999,7 +13999,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="45" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -14098,7 +14098,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -14154,7 +14154,7 @@
       <c r="D31" s="75"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="52" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="48">
@@ -14183,7 +14183,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="45" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -14290,7 +14290,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -14349,7 +14349,7 @@
       <c r="D41" s="75"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="52" t="s">
         <v>126</v>
       </c>
       <c r="C42" s="48">
@@ -14378,7 +14378,7 @@
     <row r="43" spans="2:10">
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -14476,7 +14476,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -14529,7 +14529,7 @@
       <c r="D51" s="75"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="52" t="s">
         <v>136</v>
       </c>
       <c r="C52" s="48">
@@ -14558,7 +14558,7 @@
     <row r="53" spans="2:10">
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -14667,7 +14667,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -14745,7 +14745,7 @@
       <c r="D63" s="75"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="52" t="s">
         <v>147</v>
       </c>
       <c r="C64" s="48">
@@ -14774,7 +14774,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="45" t="s">
         <v>148</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -14875,7 +14875,7 @@
     <row r="70" spans="2:10">
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -14928,7 +14928,7 @@
       <c r="D73" s="75"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="52" t="s">
         <v>157</v>
       </c>
       <c r="C74" s="48">
@@ -14957,7 +14957,7 @@
     <row r="75" spans="2:10">
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -15025,7 +15025,7 @@
     <row r="79" spans="2:10">
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="45" t="s">
         <v>102</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -15047,6 +15047,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="J10:J20"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="J32:J40"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J22:J30"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="J64:J72"/>
+    <mergeCell ref="J42:J50"/>
+    <mergeCell ref="J52:J62"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D59:D63"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E8:E9"/>
@@ -15063,39 +15096,6 @@
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="B74:B80"/>
     <mergeCell ref="B22:B31"/>
-    <mergeCell ref="J74:J79"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="J64:J72"/>
-    <mergeCell ref="J42:J50"/>
-    <mergeCell ref="J52:J62"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="J10:J20"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="J32:J40"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J22:J30"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15122,7 +15122,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>163</v>
       </c>
       <c r="D1" s="75"/>
@@ -15145,15 +15145,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>165</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -15181,31 +15181,31 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -15216,12 +15216,12 @@
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="52"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>168</v>
       </c>
       <c r="C10" s="48">
@@ -15251,7 +15251,7 @@
     <row r="11" spans="2:10" ht="14.45" customHeight="1">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>169</v>
       </c>
@@ -15361,7 +15361,7 @@
     <row r="17" spans="2:10" ht="14.45" customHeight="1">
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="46"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7" t="s">
         <v>176</v>
       </c>
@@ -15419,7 +15419,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="52" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="48">
@@ -15449,7 +15449,7 @@
     <row r="22" spans="2:10" ht="14.45" customHeight="1">
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
-      <c r="D22" s="46"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="7" t="s">
         <v>180</v>
       </c>
@@ -15559,7 +15559,7 @@
     <row r="28" spans="2:10" ht="14.45" customHeight="1">
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
-      <c r="D28" s="46"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="7" t="s">
         <v>186</v>
       </c>
@@ -15617,7 +15617,7 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="52" t="s">
         <v>189</v>
       </c>
       <c r="C32" s="48">
@@ -15647,7 +15647,7 @@
     <row r="33" spans="2:10" ht="14.45" customHeight="1">
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
-      <c r="D33" s="46"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="7" t="s">
         <v>190</v>
       </c>
@@ -15755,7 +15755,7 @@
     <row r="39" spans="2:10" ht="14.45" customHeight="1">
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="7" t="s">
         <v>196</v>
       </c>
@@ -15809,7 +15809,7 @@
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="52" t="s">
         <v>199</v>
       </c>
       <c r="C43" s="48">
@@ -15839,7 +15839,7 @@
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="7" t="s">
         <v>200</v>
       </c>
@@ -15949,7 +15949,7 @@
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="7" t="s">
         <v>206</v>
       </c>
@@ -16003,7 +16003,7 @@
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="52" t="s">
         <v>209</v>
       </c>
       <c r="C54" s="48">
@@ -16033,7 +16033,7 @@
     <row r="55" spans="2:10" ht="14.45" customHeight="1">
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
-      <c r="D55" s="46"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="7" t="s">
         <v>210</v>
       </c>
@@ -16125,7 +16125,7 @@
     <row r="60" spans="2:10" ht="28.9" customHeight="1">
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
-      <c r="D60" s="46"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="7" t="s">
         <v>215</v>
       </c>
@@ -16186,7 +16186,7 @@
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="52" t="s">
         <v>218</v>
       </c>
       <c r="C64" s="48">
@@ -16216,7 +16216,7 @@
     <row r="65" spans="2:10" ht="14.45" customHeight="1">
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
-      <c r="D65" s="46"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="7" t="s">
         <v>219</v>
       </c>
@@ -16322,7 +16322,7 @@
     <row r="71" spans="2:10" ht="14.45" customHeight="1">
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
-      <c r="D71" s="46"/>
+      <c r="D71" s="45"/>
       <c r="E71" s="7" t="s">
         <v>225</v>
       </c>
@@ -16399,7 +16399,7 @@
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="52" t="s">
         <v>229</v>
       </c>
       <c r="C76" s="48">
@@ -16429,7 +16429,7 @@
     <row r="77" spans="2:10" ht="14.45" customHeight="1">
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
-      <c r="D77" s="46"/>
+      <c r="D77" s="45"/>
       <c r="E77" s="7" t="s">
         <v>230</v>
       </c>
@@ -16533,7 +16533,7 @@
     <row r="83" spans="2:10" ht="14.45" customHeight="1">
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
-      <c r="D83" s="46"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="7" t="s">
         <v>236</v>
       </c>
@@ -16601,7 +16601,7 @@
       <c r="H87" s="9"/>
     </row>
     <row r="88" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="52" t="s">
         <v>240</v>
       </c>
       <c r="C88" s="48">
@@ -16631,7 +16631,7 @@
     <row r="89" spans="2:10" ht="14.45" customHeight="1">
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
-      <c r="D89" s="46"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="7" t="s">
         <v>241</v>
       </c>
@@ -16713,7 +16713,7 @@
     <row r="94" spans="2:10" ht="14.45" customHeight="1">
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
-      <c r="D94" s="46"/>
+      <c r="D94" s="45"/>
       <c r="E94" s="7" t="s">
         <v>246</v>
       </c>
@@ -16771,7 +16771,7 @@
       <c r="H97" s="9"/>
     </row>
     <row r="98" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B98" s="44" t="s">
+      <c r="B98" s="52" t="s">
         <v>249</v>
       </c>
       <c r="C98" s="48">
@@ -16801,7 +16801,7 @@
     <row r="99" spans="2:10" ht="14.45" customHeight="1">
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
-      <c r="D99" s="46"/>
+      <c r="D99" s="45"/>
       <c r="E99" s="7" t="s">
         <v>250</v>
       </c>
@@ -16889,7 +16889,7 @@
     <row r="104" spans="2:10" ht="14.45" customHeight="1">
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
-      <c r="D104" s="46"/>
+      <c r="D104" s="45"/>
       <c r="E104" s="7" t="s">
         <v>255</v>
       </c>
@@ -16926,34 +16926,21 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="J21:J30"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="J54:J62"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="J76:J86"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C98:C106"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="J88:J96"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="J64:J74"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="J32:J41"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="C76:C87"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="J43:J52"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C64:C75"/>
     <mergeCell ref="J10:J19"/>
@@ -16970,21 +16957,34 @@
     <mergeCell ref="D65:D69"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J76:J86"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C98:C106"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="J88:J96"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="J64:J74"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="J32:J41"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="C76:C87"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="J43:J52"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B76:B87"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="J21:J30"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="J54:J62"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17011,7 +17011,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>257</v>
       </c>
       <c r="D1" s="75"/>
@@ -17034,15 +17034,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -17068,31 +17068,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -17108,7 +17108,7 @@
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>262</v>
       </c>
       <c r="C10" s="48">
@@ -17137,7 +17137,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -17237,7 +17237,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -17291,7 +17291,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="52" t="s">
         <v>275</v>
       </c>
       <c r="C21" s="48">
@@ -17320,7 +17320,7 @@
     <row r="22" spans="2:10" ht="28.9" customHeight="1">
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -17420,7 +17420,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -17490,7 +17490,7 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="52" t="s">
         <v>287</v>
       </c>
       <c r="C33" s="48">
@@ -17519,7 +17519,7 @@
     <row r="34" spans="2:10" ht="28.9">
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -17587,7 +17587,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -17625,7 +17625,7 @@
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="52" t="s">
         <v>294</v>
       </c>
       <c r="C41" s="48">
@@ -17654,7 +17654,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -17738,7 +17738,7 @@
     <row r="47" spans="2:10">
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -17776,7 +17776,7 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="52" t="s">
         <v>302</v>
       </c>
       <c r="C50" s="48">
@@ -17805,7 +17805,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -17889,7 +17889,7 @@
     <row r="56" spans="2:10" ht="28.9">
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -17927,7 +17927,7 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="52" t="s">
         <v>310</v>
       </c>
       <c r="C59" s="48">
@@ -17956,7 +17956,7 @@
     <row r="60" spans="2:10" ht="28.9" customHeight="1">
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -18056,7 +18056,7 @@
     <row r="66" spans="2:10" ht="28.9" customHeight="1">
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -18110,7 +18110,7 @@
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="52" t="s">
         <v>320</v>
       </c>
       <c r="C70" s="48">
@@ -18139,7 +18139,7 @@
     <row r="71" spans="2:10" ht="14.45" customHeight="1">
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="45" t="s">
         <v>264</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -18239,7 +18239,7 @@
     <row r="77" spans="2:10" ht="14.45" customHeight="1">
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -18293,29 +18293,16 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B59:B69"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J70:J79"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C21:C32"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="C59:C69"/>
+    <mergeCell ref="C70:C80"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="D60:D64"/>
     <mergeCell ref="J10:J19"/>
@@ -18332,16 +18319,29 @@
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="J50:J57"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J70:J79"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C21:C32"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="C59:C69"/>
-    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B59:B69"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18369,7 +18369,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>330</v>
       </c>
       <c r="D1" s="75"/>
@@ -18392,15 +18392,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -18428,31 +18428,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -18463,12 +18463,12 @@
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>334</v>
       </c>
       <c r="C10" s="48">
@@ -18496,7 +18496,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>335</v>
       </c>
@@ -18558,7 +18558,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="46"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="7" t="s">
         <v>340</v>
       </c>
@@ -18585,7 +18585,7 @@
       <c r="D18" s="75"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="52" t="s">
         <v>342</v>
       </c>
       <c r="C19" s="48">
@@ -18616,7 +18616,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="7" t="s">
         <v>343</v>
       </c>
@@ -18684,7 +18684,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
-      <c r="D25" s="46"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="7" t="s">
         <v>348</v>
       </c>
@@ -18711,7 +18711,7 @@
       <c r="D27" s="75"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="52" t="s">
         <v>350</v>
       </c>
       <c r="C28" s="48">
@@ -18739,7 +18739,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="7" t="s">
         <v>351</v>
       </c>
@@ -18828,7 +18828,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="7" t="s">
         <v>357</v>
       </c>
@@ -18870,7 +18870,7 @@
       <c r="D38" s="75"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="52" t="s">
         <v>360</v>
       </c>
       <c r="C39" s="48">
@@ -18898,7 +18898,7 @@
     <row r="40" spans="2:10">
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
-      <c r="D40" s="46"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="7" t="s">
         <v>361</v>
       </c>
@@ -18987,7 +18987,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
-      <c r="D46" s="46"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="7" t="s">
         <v>367</v>
       </c>
@@ -19032,7 +19032,7 @@
       <c r="D49" s="75"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="52" t="s">
         <v>370</v>
       </c>
       <c r="C50" s="48">
@@ -19060,7 +19060,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
-      <c r="D51" s="46"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="7" t="s">
         <v>371</v>
       </c>
@@ -19119,7 +19119,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
-      <c r="D55" s="46"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="7" t="s">
         <v>375</v>
       </c>
@@ -19152,7 +19152,7 @@
       <c r="D57" s="75"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="52" t="s">
         <v>377</v>
       </c>
       <c r="C58" s="48">
@@ -19180,7 +19180,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
-      <c r="D59" s="46"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="7" t="s">
         <v>378</v>
       </c>
@@ -19254,7 +19254,7 @@
     <row r="64" spans="2:10">
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
-      <c r="D64" s="46"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="7" t="s">
         <v>383</v>
       </c>
@@ -19297,29 +19297,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B39:B49"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="J19:J26"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="J28:J37"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D59:D62"/>
     <mergeCell ref="C58:C67"/>
     <mergeCell ref="B28:B38"/>
     <mergeCell ref="J39:J48"/>
@@ -19336,11 +19318,29 @@
     <mergeCell ref="D40:D44"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="J50:J56"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="J19:J26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="J28:J37"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B39:B49"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19350,7 +19350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -19367,7 +19367,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>386</v>
       </c>
       <c r="D1" s="75"/>
@@ -19390,15 +19390,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -19429,31 +19429,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -19469,7 +19469,7 @@
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>390</v>
       </c>
       <c r="C10" s="48">
@@ -19498,7 +19498,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>391</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -19602,7 +19602,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>397</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -19667,7 +19667,7 @@
       <c r="D19" s="75"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="52" t="s">
         <v>401</v>
       </c>
       <c r="C20" s="48">
@@ -19696,7 +19696,7 @@
     <row r="21" spans="2:10" ht="28.9">
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="45" t="s">
         <v>402</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -19780,7 +19780,7 @@
     <row r="25" spans="2:10" ht="28.9">
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="45" t="s">
         <v>397</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -19825,7 +19825,7 @@
       <c r="D27" s="75"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="52" t="s">
         <v>409</v>
       </c>
       <c r="C28" s="48">
@@ -19854,7 +19854,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="45" t="s">
         <v>410</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -19958,7 +19958,7 @@
     <row r="34" spans="2:10">
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>416</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -20023,7 +20023,7 @@
       <c r="D37" s="75"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="52" t="s">
         <v>420</v>
       </c>
       <c r="C38" s="48">
@@ -20052,7 +20052,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="45" t="s">
         <v>421</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -20176,7 +20176,7 @@
     <row r="45" spans="2:10" ht="28.9">
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -20241,7 +20241,7 @@
       <c r="D48" s="75"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="52" t="s">
         <v>432</v>
       </c>
       <c r="C49" s="48">
@@ -20270,7 +20270,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="45" t="s">
         <v>433</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -20374,7 +20374,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="45" t="s">
         <v>439</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -20439,7 +20439,7 @@
       <c r="D58" s="75"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="52" t="s">
         <v>443</v>
       </c>
       <c r="C59" s="48">
@@ -20468,7 +20468,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="45" t="s">
         <v>444</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -20572,7 +20572,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="45" t="s">
         <v>428</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -20617,7 +20617,7 @@
       <c r="D67" s="75"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="52" t="s">
         <v>452</v>
       </c>
       <c r="C68" s="48">
@@ -20646,7 +20646,7 @@
     <row r="69" spans="2:10">
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="45" t="s">
         <v>453</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -20750,7 +20750,7 @@
     <row r="74" spans="2:10">
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
-      <c r="D74" s="46" t="s">
+      <c r="D74" s="45" t="s">
         <v>170</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -20815,7 +20815,7 @@
       <c r="D77" s="75"/>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="52" t="s">
         <v>462</v>
       </c>
       <c r="C78" s="48">
@@ -20848,7 +20848,7 @@
     <row r="79" spans="2:10">
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="45" t="s">
         <v>463</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -20952,7 +20952,7 @@
     <row r="84" spans="2:10">
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
-      <c r="D84" s="46" t="s">
+      <c r="D84" s="45" t="s">
         <v>397</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -21079,23 +21079,27 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="J20:J26"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="J28:J36"/>
+    <mergeCell ref="J68:J76"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="J49:J57"/>
+    <mergeCell ref="C78:C86"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D50:D53"/>
     <mergeCell ref="B78:B86"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="C2:E2"/>
@@ -21112,27 +21116,23 @@
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="D84:D86"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C78:C86"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="J28:J36"/>
-    <mergeCell ref="J68:J76"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="J49:J57"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="J20:J26"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21142,7 +21142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
@@ -21157,21 +21159,21 @@
       <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
       <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -21180,15 +21182,15 @@
       <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="62" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -21196,20 +21198,20 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
-      <c r="F4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="F4" s="58"/>
+      <c r="I4" s="58"/>
       <c r="J4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25">
       <c r="F5" s="37">
-        <f>SUM(F8:F200)/2</f>
-        <v>66.5</v>
+        <f>SUM(F8:F200)</f>
+        <v>68</v>
       </c>
       <c r="I5" s="38">
         <f>SUM(I8:I200)/2</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>487</v>
@@ -21218,47 +21220,47 @@
     <row r="6" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>488</v>
       </c>
       <c r="C10" s="48">
@@ -21270,22 +21272,20 @@
       <c r="E10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="74">
-        <v>27</v>
-      </c>
-      <c r="G10" s="74">
+      <c r="F10" s="44">
+        <v>11</v>
+      </c>
+      <c r="G10" s="44">
         <f>SUM(G11:G18)</f>
         <v>100</v>
       </c>
-      <c r="I10" s="74">
-        <v>3</v>
-      </c>
+      <c r="I10" s="44"/>
       <c r="J10" s="75"/>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>489</v>
       </c>
@@ -21298,9 +21298,9 @@
       <c r="J11" s="75"/>
     </row>
     <row r="12" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7" t="s">
         <v>490</v>
       </c>
@@ -21313,9 +21313,9 @@
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7" t="s">
         <v>491</v>
       </c>
@@ -21328,9 +21328,9 @@
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7" t="s">
         <v>492</v>
       </c>
@@ -21343,8 +21343,8 @@
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="39" t="s">
         <v>10</v>
       </c>
@@ -21360,9 +21360,9 @@
       <c r="J15" s="75"/>
     </row>
     <row r="16" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="7" t="s">
         <v>494</v>
       </c>
@@ -21375,9 +21375,9 @@
       <c r="J16" s="75"/>
     </row>
     <row r="17" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7" t="s">
         <v>495</v>
       </c>
@@ -21390,9 +21390,9 @@
       <c r="J17" s="75"/>
     </row>
     <row r="18" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7" t="s">
         <v>496</v>
       </c>
@@ -21405,12 +21405,12 @@
       <c r="J18" s="75"/>
     </row>
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
     </row>
     <row r="20" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="52" t="s">
         <v>497</v>
       </c>
       <c r="C20" s="48">
@@ -21422,22 +21422,22 @@
       <c r="E20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="74">
-        <v>27</v>
-      </c>
-      <c r="G20" s="74">
+      <c r="F20" s="44">
+        <v>18</v>
+      </c>
+      <c r="G20" s="44">
         <f>SUM(G21:G30)</f>
         <v>100</v>
       </c>
-      <c r="I20" s="74">
-        <v>3</v>
+      <c r="I20" s="44">
+        <v>4</v>
       </c>
       <c r="J20" s="75"/>
     </row>
     <row r="21" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="46"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="7" t="s">
         <v>498</v>
       </c>
@@ -21450,9 +21450,9 @@
       <c r="J21" s="75"/>
     </row>
     <row r="22" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7" t="s">
         <v>499</v>
       </c>
@@ -21465,9 +21465,9 @@
       <c r="J22" s="75"/>
     </row>
     <row r="23" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7" t="s">
         <v>500</v>
       </c>
@@ -21480,9 +21480,9 @@
       <c r="J23" s="75"/>
     </row>
     <row r="24" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7" t="s">
         <v>501</v>
       </c>
@@ -21495,9 +21495,9 @@
       <c r="J24" s="75"/>
     </row>
     <row r="25" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="7" t="s">
         <v>502</v>
       </c>
@@ -21507,11 +21507,14 @@
       <c r="G25" s="8">
         <v>10</v>
       </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
       <c r="J25" s="75"/>
     </row>
     <row r="26" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="39" t="s">
         <v>10</v>
       </c>
@@ -21527,9 +21530,9 @@
       <c r="J26" s="75"/>
     </row>
     <row r="27" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="46"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="7" t="s">
         <v>504</v>
       </c>
@@ -21542,9 +21545,9 @@
       <c r="J27" s="75"/>
     </row>
     <row r="28" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="7" t="s">
         <v>505</v>
       </c>
@@ -21557,9 +21560,9 @@
       <c r="J28" s="75"/>
     </row>
     <row r="29" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="7" t="s">
         <v>506</v>
       </c>
@@ -21572,9 +21575,9 @@
       <c r="J29" s="75"/>
     </row>
     <row r="30" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="7" t="s">
         <v>507</v>
       </c>
@@ -21587,12 +21590,12 @@
       <c r="J30" s="75"/>
     </row>
     <row r="31" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="52" t="s">
         <v>508</v>
       </c>
       <c r="C32" s="48">
@@ -21604,22 +21607,20 @@
       <c r="E32" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="74">
-        <v>27</v>
-      </c>
-      <c r="G32" s="74">
+      <c r="F32" s="44">
+        <v>11</v>
+      </c>
+      <c r="G32" s="44">
         <f>SUM(G33:G43)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="I32" s="74">
-        <v>3</v>
-      </c>
+      <c r="I32" s="44"/>
       <c r="J32" s="75"/>
     </row>
     <row r="33" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="46"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="7" t="s">
         <v>509</v>
       </c>
@@ -21632,9 +21633,9 @@
       <c r="J33" s="75"/>
     </row>
     <row r="34" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="7" t="s">
         <v>510</v>
       </c>
@@ -21647,9 +21648,9 @@
       <c r="J34" s="75"/>
     </row>
     <row r="35" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="7" t="s">
         <v>511</v>
       </c>
@@ -21662,9 +21663,9 @@
       <c r="J35" s="75"/>
     </row>
     <row r="36" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="7" t="s">
         <v>512</v>
       </c>
@@ -21680,9 +21681,9 @@
       <c r="J36" s="75"/>
     </row>
     <row r="37" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="7" t="s">
         <v>514</v>
       </c>
@@ -21695,9 +21696,9 @@
       <c r="J37" s="75"/>
     </row>
     <row r="38" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="7" t="s">
         <v>515</v>
       </c>
@@ -21710,8 +21711,8 @@
       <c r="J38" s="75"/>
     </row>
     <row r="39" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="39" t="s">
         <v>10</v>
       </c>
@@ -21727,9 +21728,9 @@
       <c r="J39" s="75"/>
     </row>
     <row r="40" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="7" t="s">
         <v>517</v>
       </c>
@@ -21745,9 +21746,9 @@
       <c r="J40" s="75"/>
     </row>
     <row r="41" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="7" t="s">
         <v>518</v>
       </c>
@@ -21760,9 +21761,9 @@
       <c r="J41" s="75"/>
     </row>
     <row r="42" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="7" t="s">
         <v>519</v>
       </c>
@@ -21775,9 +21776,9 @@
       <c r="J42" s="75"/>
     </row>
     <row r="43" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="7" t="s">
         <v>520</v>
       </c>
@@ -21790,12 +21791,12 @@
       <c r="J43" s="75"/>
     </row>
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="52" t="s">
         <v>521</v>
       </c>
       <c r="C45" s="48">
@@ -21807,22 +21808,20 @@
       <c r="E45" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="74">
-        <v>26</v>
-      </c>
-      <c r="G45" s="74">
+      <c r="F45" s="44">
+        <v>11</v>
+      </c>
+      <c r="G45" s="44">
         <f>SUM(G46:G53)</f>
         <v>100</v>
       </c>
-      <c r="I45" s="74">
-        <v>3</v>
-      </c>
+      <c r="I45" s="44"/>
       <c r="J45" s="75"/>
     </row>
     <row r="46" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="46"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="7" t="s">
         <v>522</v>
       </c>
@@ -21835,9 +21834,9 @@
       <c r="J46" s="75"/>
     </row>
     <row r="47" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="7" t="s">
         <v>523</v>
       </c>
@@ -21850,9 +21849,9 @@
       <c r="J47" s="75"/>
     </row>
     <row r="48" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="7" t="s">
         <v>524</v>
       </c>
@@ -21865,9 +21864,9 @@
       <c r="J48" s="75"/>
     </row>
     <row r="49" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="7" t="s">
         <v>525</v>
       </c>
@@ -21880,8 +21879,8 @@
       <c r="J49" s="75"/>
     </row>
     <row r="50" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="39" t="s">
         <v>10</v>
       </c>
@@ -21897,9 +21896,9 @@
       <c r="J50" s="75"/>
     </row>
     <row r="51" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="46"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="7" t="s">
         <v>527</v>
       </c>
@@ -21915,9 +21914,9 @@
       <c r="J51" s="75"/>
     </row>
     <row r="52" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="7" t="s">
         <v>528</v>
       </c>
@@ -21930,9 +21929,9 @@
       <c r="J52" s="75"/>
     </row>
     <row r="53" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="7" t="s">
         <v>529</v>
       </c>
@@ -21945,12 +21944,12 @@
       <c r="J53" s="75"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
     </row>
     <row r="55" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="52" t="s">
         <v>530</v>
       </c>
       <c r="C55" s="48">
@@ -21962,22 +21961,22 @@
       <c r="E55" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="74">
-        <v>26</v>
-      </c>
-      <c r="G55" s="74">
+      <c r="F55" s="44">
+        <v>17</v>
+      </c>
+      <c r="G55" s="44">
         <f>SUM(G56:G61)</f>
         <v>100.0000000000002</v>
       </c>
-      <c r="I55" s="74">
-        <v>3</v>
+      <c r="I55" s="44">
+        <v>6</v>
       </c>
       <c r="J55" s="75"/>
     </row>
     <row r="56" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="7" t="s">
         <v>531</v>
       </c>
@@ -21990,9 +21989,9 @@
       <c r="J56" s="75"/>
     </row>
     <row r="57" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="7" t="s">
         <v>532</v>
       </c>
@@ -22005,9 +22004,9 @@
       <c r="J57" s="75"/>
     </row>
     <row r="58" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="7" t="s">
         <v>533</v>
       </c>
@@ -22020,8 +22019,8 @@
       <c r="J58" s="75"/>
     </row>
     <row r="59" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="39" t="s">
         <v>10</v>
       </c>
@@ -22034,12 +22033,15 @@
       <c r="G59" s="8">
         <v>16.6666666666667</v>
       </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
       <c r="J59" s="75"/>
     </row>
     <row r="60" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="7" t="s">
         <v>535</v>
       </c>
@@ -22052,9 +22054,9 @@
       <c r="J60" s="75"/>
     </row>
     <row r="61" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="7" t="s">
         <v>536</v>
       </c>
@@ -22067,13 +22069,36 @@
       <c r="J61" s="75"/>
     </row>
     <row r="62" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
     </row>
     <row r="63" spans="2:10" ht="15"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="J55:J61"/>
+    <mergeCell ref="J32:J43"/>
+    <mergeCell ref="J45:J53"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="C32:C44"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="J20:J30"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D56:D58"/>
     <mergeCell ref="B55:B62"/>
@@ -22090,29 +22115,6 @@
     <mergeCell ref="B32:B44"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="J20:J30"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J55:J61"/>
-    <mergeCell ref="J32:J43"/>
-    <mergeCell ref="J45:J53"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="C32:C44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22140,7 +22142,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>537</v>
       </c>
       <c r="D1" s="75"/>
@@ -22163,15 +22165,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>539</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -22199,31 +22201,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -22234,12 +22236,12 @@
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
-      <c r="H9" s="52"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>541</v>
       </c>
       <c r="C10" s="48">
@@ -22268,7 +22270,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>542</v>
       </c>
@@ -22369,7 +22371,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="46"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="7" t="s">
         <v>547</v>
       </c>
@@ -22408,7 +22410,7 @@
       <c r="D18" s="75"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="52" t="s">
         <v>549</v>
       </c>
       <c r="C19" s="48">
@@ -22437,7 +22439,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="7" t="s">
         <v>550</v>
       </c>
@@ -22574,7 +22576,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
-      <c r="D27" s="46"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="7" t="s">
         <v>557</v>
       </c>
@@ -22658,7 +22660,7 @@
       <c r="D31" s="75"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="52" t="s">
         <v>561</v>
       </c>
       <c r="C32" s="48">
@@ -22687,7 +22689,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
-      <c r="D33" s="46"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="7" t="s">
         <v>562</v>
       </c>
@@ -22788,7 +22790,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
-      <c r="D38" s="46"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="7" t="s">
         <v>567</v>
       </c>
@@ -22830,7 +22832,7 @@
       <c r="D40" s="75"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="52" t="s">
         <v>569</v>
       </c>
       <c r="C41" s="48">
@@ -22859,7 +22861,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
-      <c r="D42" s="46"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="7" t="s">
         <v>570</v>
       </c>
@@ -22957,7 +22959,7 @@
     <row r="47" spans="2:10">
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
-      <c r="D47" s="46"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="7" t="s">
         <v>575</v>
       </c>
@@ -23017,7 +23019,7 @@
       <c r="D50" s="75"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="52" t="s">
         <v>577</v>
       </c>
       <c r="C51" s="48">
@@ -23046,7 +23048,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
-      <c r="D52" s="46"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="7" t="s">
         <v>578</v>
       </c>
@@ -23126,7 +23128,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
-      <c r="D56" s="46"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="7" t="s">
         <v>582</v>
       </c>
@@ -23150,7 +23152,7 @@
       <c r="D57" s="75"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="52" t="s">
         <v>583</v>
       </c>
       <c r="C58" s="48">
@@ -23179,7 +23181,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
-      <c r="D59" s="46"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="7" t="s">
         <v>584</v>
       </c>
@@ -23298,7 +23300,7 @@
     <row r="65" spans="2:10" ht="28.9">
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
-      <c r="D65" s="46"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="7" t="s">
         <v>590</v>
       </c>
@@ -23359,25 +23361,15 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B58:B68"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="B19:B31"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="C19:C31"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="C58:C68"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="J58:J67"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J41:J49"/>
     <mergeCell ref="J10:J17"/>
@@ -23394,15 +23386,25 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="J32:J39"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="C58:C68"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="J58:J67"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B58:B68"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="B19:B31"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="C19:C31"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23429,7 +23431,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>593</v>
       </c>
       <c r="D1" s="75"/>
@@ -23452,15 +23454,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>539</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -23488,31 +23490,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -23528,7 +23530,7 @@
       <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>596</v>
       </c>
       <c r="C10" s="48">
@@ -23557,7 +23559,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="75"/>
       <c r="C11" s="48"/>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>597</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -23671,7 +23673,7 @@
     <row r="16" spans="2:10" ht="28.9">
       <c r="B16" s="75"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>603</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -23743,7 +23745,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="52" t="s">
         <v>607</v>
       </c>
       <c r="C20" s="48">
@@ -23773,7 +23775,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="75"/>
       <c r="C21" s="48"/>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="52" t="s">
         <v>608</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -23796,7 +23798,7 @@
     <row r="22" spans="2:10" ht="28.9">
       <c r="B22" s="75"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="7" t="s">
         <v>610</v>
       </c>
@@ -23817,7 +23819,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="75"/>
       <c r="C23" s="48"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="7" t="s">
         <v>611</v>
       </c>
@@ -23838,7 +23840,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="75"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="53"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="7" t="s">
         <v>612</v>
       </c>
@@ -23859,7 +23861,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="75"/>
       <c r="C25" s="48"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="7" t="s">
         <v>613</v>
       </c>
@@ -23897,7 +23899,7 @@
     <row r="27" spans="2:10" ht="28.9">
       <c r="B27" s="75"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="52" t="s">
         <v>615</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -23917,7 +23919,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="75"/>
       <c r="C28" s="48"/>
-      <c r="D28" s="53"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="7" t="s">
         <v>617</v>
       </c>
@@ -23935,7 +23937,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="75"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="53"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="7" t="s">
         <v>618</v>
       </c>
@@ -23953,7 +23955,7 @@
     <row r="30" spans="2:10">
       <c r="B30" s="75"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="7" t="s">
         <v>619</v>
       </c>
@@ -23971,10 +23973,10 @@
     <row r="31" spans="2:10">
       <c r="B31" s="75"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="53"/>
+      <c r="D31" s="59"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="52" t="s">
         <v>620</v>
       </c>
       <c r="C32" s="48">
@@ -24003,7 +24005,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="75"/>
       <c r="C33" s="48"/>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="45" t="s">
         <v>621</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -24097,7 +24099,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="75"/>
       <c r="C38" s="48"/>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="45" t="s">
         <v>627</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -24156,7 +24158,7 @@
       <c r="D41" s="75"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="52" t="s">
         <v>631</v>
       </c>
       <c r="C42" s="48">
@@ -24185,7 +24187,7 @@
     <row r="43" spans="2:10">
       <c r="B43" s="75"/>
       <c r="C43" s="48"/>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="45" t="s">
         <v>632</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -24249,7 +24251,7 @@
     <row r="47" spans="2:10">
       <c r="B47" s="75"/>
       <c r="C47" s="48"/>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="45" t="s">
         <v>603</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -24284,7 +24286,7 @@
       <c r="D49" s="75"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="52" t="s">
         <v>639</v>
       </c>
       <c r="C50" s="48">
@@ -24313,7 +24315,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="75"/>
       <c r="C51" s="48"/>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="52" t="s">
         <v>640</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -24330,7 +24332,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="75"/>
       <c r="C52" s="48"/>
-      <c r="D52" s="53"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="7" t="s">
         <v>642</v>
       </c>
@@ -24345,7 +24347,7 @@
     <row r="53" spans="2:10">
       <c r="B53" s="75"/>
       <c r="C53" s="48"/>
-      <c r="D53" s="53"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="7" t="s">
         <v>643</v>
       </c>
@@ -24360,7 +24362,7 @@
     <row r="54" spans="2:10">
       <c r="B54" s="75"/>
       <c r="C54" s="48"/>
-      <c r="D54" s="53"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="7" t="s">
         <v>644</v>
       </c>
@@ -24375,7 +24377,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="75"/>
       <c r="C55" s="48"/>
-      <c r="D55" s="53"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="7" t="s">
         <v>645</v>
       </c>
@@ -24407,7 +24409,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="75"/>
       <c r="C57" s="48"/>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="52" t="s">
         <v>647</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -24424,7 +24426,7 @@
     <row r="58" spans="2:10">
       <c r="B58" s="75"/>
       <c r="C58" s="48"/>
-      <c r="D58" s="53"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="7" t="s">
         <v>649</v>
       </c>
@@ -24439,7 +24441,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="75"/>
       <c r="C59" s="48"/>
-      <c r="D59" s="53"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="7" t="s">
         <v>650</v>
       </c>
@@ -24454,7 +24456,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="75"/>
       <c r="C60" s="48"/>
-      <c r="D60" s="53"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="7" t="s">
         <v>651</v>
       </c>
@@ -24469,28 +24471,15 @@
     <row r="61" spans="2:10">
       <c r="B61" s="75"/>
       <c r="C61" s="48"/>
-      <c r="D61" s="53"/>
+      <c r="D61" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="J32:J40"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J20:J30"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="C32:C41"/>
     <mergeCell ref="B50:B61"/>
     <mergeCell ref="J50:J60"/>
     <mergeCell ref="B42:B49"/>
@@ -24507,36 +24496,30 @@
     <mergeCell ref="J10:J18"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="J32:J40"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J20:J30"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5A555947EA08B4492B5A01D27630555" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="aefc23d1fcd7657c59102621f2af9be9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcacaf0f-47d6-4512-8755-33aa81f58d6d" xmlns:ns3="e86545fc-a686-4a97-98c8-7cf5c396f016" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29ada23619a1ee36c99f0d192b4bcace" ns2:_="" ns3:_="">
     <xsd:import namespace="fcacaf0f-47d6-4512-8755-33aa81f58d6d"/>
@@ -24759,8 +24742,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852830B3-EA70-480F-A422-3E7BE74523F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9483664-DB35-41F0-9554-4691E5ED1707}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24768,5 +24770,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9483664-DB35-41F0-9554-4691E5ED1707}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852830B3-EA70-480F-A422-3E7BE74523F0}"/>
 </file>